--- a/routes/Teacher/Daftar Guru 2019-09-06.xlsx
+++ b/routes/Teacher/Daftar Guru 2019-09-06.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>No</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Status Pemabayaran</t>
   </si>
   <si>
-    <t>Guru Pendaming Dramaga 1</t>
+    <t>Guru Pendaming Dramaga 2</t>
   </si>
   <si>
     <t>gurudramaga1@example.com</t>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>SMAN 1 Dramaga</t>
-  </si>
-  <si>
-    <t>Guru Pendaming Dramaga 2</t>
   </si>
   <si>
     <t>gurudramaga2@example.com</t>
@@ -479,7 +476,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -487,10 +484,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -502,7 +499,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
